--- a/Music and Memory/BehaviouralResults/LyricOrientation_AllParticipants.xlsx
+++ b/Music and Memory/BehaviouralResults/LyricOrientation_AllParticipants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="1320" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="15920" yWindow="4680" windowWidth="17100" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Lyric+Orientation+Questionnaire" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
   <si>
     <t>StartDate</t>
   </si>
@@ -454,6 +454,36 @@
   </si>
   <si>
     <t>Average score</t>
+  </si>
+  <si>
+    <t>R_28BrbTUj67rsJB8</t>
+  </si>
+  <si>
+    <t>R_31jtCoJtXFrr8Wa</t>
+  </si>
+  <si>
+    <t>R_2TnvtbTdXurqvlj</t>
+  </si>
+  <si>
+    <t>R_3qkxoIeFpyhDkBx</t>
+  </si>
+  <si>
+    <t>R_RUfDZE4BWZRFb7r</t>
+  </si>
+  <si>
+    <t>R_33jqvPC4WIqPAdP</t>
+  </si>
+  <si>
+    <t>R_1eFtXm8jH4Qhb3n</t>
+  </si>
+  <si>
+    <t>R_2P0RxWTbFXybkfg</t>
+  </si>
+  <si>
+    <t>R_1rDIGLGN3uTfLvG</t>
+  </si>
+  <si>
+    <t>R_2Y32I96eYbc6jtZ</t>
   </si>
 </sst>
 </file>
@@ -510,8 +540,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -520,9 +552,11 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -852,13 +886,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU19"/>
+  <dimension ref="A1:AU29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AS12" sqref="AS12:AS19"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AU22" sqref="AU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="44" max="44" width="14.6640625" customWidth="1"/>
+    <col min="45" max="45" width="4.83203125" customWidth="1"/>
+    <col min="46" max="46" width="10.83203125" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" t="s">
@@ -1496,11 +1535,11 @@
         <v>6</v>
       </c>
       <c r="AR5">
-        <f t="shared" ref="AR5:AR19" si="0">SUM(S5:AO5)</f>
+        <f t="shared" ref="AR5:AR29" si="0">SUM(S5:AO5)</f>
         <v>112</v>
       </c>
       <c r="AS5">
-        <f t="shared" ref="AS5:AS19" si="1">AVERAGE(S5:AO5)</f>
+        <f t="shared" ref="AS5:AS29" si="1">AVERAGE(S5:AO5)</f>
         <v>4.8695652173913047</v>
       </c>
       <c r="AU5">
@@ -3241,6 +3280,1246 @@
       </c>
       <c r="AU19">
         <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="A20" s="1">
+        <v>43244.467962962961</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43244.475775462961</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>675</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>43244.475787037038</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O20">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R20">
+        <v>116</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>6</v>
+      </c>
+      <c r="Y20">
+        <v>6</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>5</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>6</v>
+      </c>
+      <c r="AE20">
+        <v>3</v>
+      </c>
+      <c r="AF20">
+        <v>4</v>
+      </c>
+      <c r="AG20">
+        <v>3</v>
+      </c>
+      <c r="AH20">
+        <v>3</v>
+      </c>
+      <c r="AI20">
+        <v>6</v>
+      </c>
+      <c r="AJ20">
+        <v>5</v>
+      </c>
+      <c r="AK20">
+        <v>3</v>
+      </c>
+      <c r="AL20">
+        <v>7</v>
+      </c>
+      <c r="AM20">
+        <v>3</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>5</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="1"/>
+        <v>4.1304347826086953</v>
+      </c>
+      <c r="AU20">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="A21" s="1">
+        <v>43250.375462962962</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43250.376828703702</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>117</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>43250.376828703702</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O21">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>125</v>
+      </c>
+      <c r="R21">
+        <v>117</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <v>5</v>
+      </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>6</v>
+      </c>
+      <c r="AE21">
+        <v>5</v>
+      </c>
+      <c r="AF21">
+        <v>5</v>
+      </c>
+      <c r="AG21">
+        <v>4</v>
+      </c>
+      <c r="AH21">
+        <v>6</v>
+      </c>
+      <c r="AI21">
+        <v>5</v>
+      </c>
+      <c r="AJ21">
+        <v>5</v>
+      </c>
+      <c r="AK21">
+        <v>5</v>
+      </c>
+      <c r="AL21">
+        <v>3</v>
+      </c>
+      <c r="AM21">
+        <v>2</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>6</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="1"/>
+        <v>4.3043478260869561</v>
+      </c>
+      <c r="AU21">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" s="1">
+        <v>43256.300254629627</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43256.301921296297</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>143</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>43256.301932870374</v>
+      </c>
+      <c r="I22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N22">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O22">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22">
+        <v>118</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+      <c r="X22">
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>5</v>
+      </c>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AD22">
+        <v>7</v>
+      </c>
+      <c r="AE22">
+        <v>2</v>
+      </c>
+      <c r="AF22">
+        <v>5</v>
+      </c>
+      <c r="AG22">
+        <v>5</v>
+      </c>
+      <c r="AH22">
+        <v>6</v>
+      </c>
+      <c r="AI22">
+        <v>6</v>
+      </c>
+      <c r="AJ22">
+        <v>5</v>
+      </c>
+      <c r="AK22">
+        <v>3</v>
+      </c>
+      <c r="AL22">
+        <v>7</v>
+      </c>
+      <c r="AM22">
+        <v>2</v>
+      </c>
+      <c r="AN22">
+        <v>7</v>
+      </c>
+      <c r="AO22">
+        <v>7</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="1"/>
+        <v>4.8260869565217392</v>
+      </c>
+      <c r="AU22">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" s="1">
+        <v>43273.482523148145</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43273.484270833331</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>150</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43273.484270833331</v>
+      </c>
+      <c r="I23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N23">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O23">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P23" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>125</v>
+      </c>
+      <c r="R23">
+        <v>119</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
+      </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+      <c r="AA23">
+        <v>6</v>
+      </c>
+      <c r="AB23">
+        <v>7</v>
+      </c>
+      <c r="AC23">
+        <v>6</v>
+      </c>
+      <c r="AD23">
+        <v>7</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+      <c r="AF23">
+        <v>6</v>
+      </c>
+      <c r="AG23">
+        <v>5</v>
+      </c>
+      <c r="AH23">
+        <v>6</v>
+      </c>
+      <c r="AI23">
+        <v>6</v>
+      </c>
+      <c r="AJ23">
+        <v>6</v>
+      </c>
+      <c r="AK23">
+        <v>6</v>
+      </c>
+      <c r="AL23">
+        <v>6</v>
+      </c>
+      <c r="AM23">
+        <v>6</v>
+      </c>
+      <c r="AN23">
+        <v>6</v>
+      </c>
+      <c r="AO23">
+        <v>7</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="1"/>
+        <v>5.6086956521739131</v>
+      </c>
+      <c r="AU23">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="A24" s="1">
+        <v>43278.358287037037</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43278.359583333331</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>111</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>43278.359583333331</v>
+      </c>
+      <c r="I24" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O24">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24">
+        <v>122</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>6</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>5</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
+      </c>
+      <c r="AD24">
+        <v>5</v>
+      </c>
+      <c r="AE24">
+        <v>6</v>
+      </c>
+      <c r="AF24">
+        <v>6</v>
+      </c>
+      <c r="AG24">
+        <v>5</v>
+      </c>
+      <c r="AH24">
+        <v>5</v>
+      </c>
+      <c r="AI24">
+        <v>6</v>
+      </c>
+      <c r="AJ24">
+        <v>6</v>
+      </c>
+      <c r="AK24">
+        <v>5</v>
+      </c>
+      <c r="AL24">
+        <v>6</v>
+      </c>
+      <c r="AM24">
+        <v>3</v>
+      </c>
+      <c r="AN24">
+        <v>6</v>
+      </c>
+      <c r="AO24">
+        <v>6</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="1"/>
+        <v>5.2608695652173916</v>
+      </c>
+      <c r="AU24">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="A25" s="1">
+        <v>43278.369849537034</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43278.384895833333</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>1299</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>43278.384895833333</v>
+      </c>
+      <c r="I25" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O25">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>125</v>
+      </c>
+      <c r="R25">
+        <v>120</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>5</v>
+      </c>
+      <c r="AA25">
+        <v>6</v>
+      </c>
+      <c r="AB25">
+        <v>5</v>
+      </c>
+      <c r="AC25">
+        <v>5</v>
+      </c>
+      <c r="AD25">
+        <v>4</v>
+      </c>
+      <c r="AE25">
+        <v>6</v>
+      </c>
+      <c r="AF25">
+        <v>5</v>
+      </c>
+      <c r="AG25">
+        <v>6</v>
+      </c>
+      <c r="AH25">
+        <v>6</v>
+      </c>
+      <c r="AI25">
+        <v>6</v>
+      </c>
+      <c r="AJ25">
+        <v>6</v>
+      </c>
+      <c r="AK25">
+        <v>3</v>
+      </c>
+      <c r="AL25">
+        <v>4</v>
+      </c>
+      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AN25">
+        <v>6</v>
+      </c>
+      <c r="AO25">
+        <v>6</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="1"/>
+        <v>4.9130434782608692</v>
+      </c>
+      <c r="AU25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="A26" s="1">
+        <v>43285.363344907404</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43285.388877314814</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>2206</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43285.38890046296</v>
+      </c>
+      <c r="I26" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O26">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P26" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>125</v>
+      </c>
+      <c r="R26">
+        <v>125</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <v>6</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>6</v>
+      </c>
+      <c r="AC26">
+        <v>6</v>
+      </c>
+      <c r="AD26">
+        <v>5</v>
+      </c>
+      <c r="AE26">
+        <v>5</v>
+      </c>
+      <c r="AF26">
+        <v>5</v>
+      </c>
+      <c r="AG26">
+        <v>4</v>
+      </c>
+      <c r="AH26">
+        <v>5</v>
+      </c>
+      <c r="AI26">
+        <v>5</v>
+      </c>
+      <c r="AJ26">
+        <v>5</v>
+      </c>
+      <c r="AK26">
+        <v>5</v>
+      </c>
+      <c r="AL26">
+        <v>6</v>
+      </c>
+      <c r="AM26">
+        <v>3</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>6</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="1"/>
+        <v>4.7391304347826084</v>
+      </c>
+      <c r="AU26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="A27" s="1">
+        <v>43294.47252314815</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43294.474594907406</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>179</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43294.474606481483</v>
+      </c>
+      <c r="I27" t="s">
+        <v>152</v>
+      </c>
+      <c r="N27">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O27">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>125</v>
+      </c>
+      <c r="R27">
+        <v>124</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+      <c r="AA27">
+        <v>5</v>
+      </c>
+      <c r="AB27">
+        <v>4</v>
+      </c>
+      <c r="AC27">
+        <v>5</v>
+      </c>
+      <c r="AD27">
+        <v>6</v>
+      </c>
+      <c r="AE27">
+        <v>3</v>
+      </c>
+      <c r="AF27">
+        <v>5</v>
+      </c>
+      <c r="AG27">
+        <v>5</v>
+      </c>
+      <c r="AH27">
+        <v>6</v>
+      </c>
+      <c r="AI27">
+        <v>6</v>
+      </c>
+      <c r="AJ27">
+        <v>5</v>
+      </c>
+      <c r="AK27">
+        <v>3</v>
+      </c>
+      <c r="AL27">
+        <v>4</v>
+      </c>
+      <c r="AM27">
+        <v>5</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>6</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="1"/>
+        <v>4.4782608695652177</v>
+      </c>
+      <c r="AU27">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="A28" s="1">
+        <v>43300.435011574074</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43300.436562499999</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>133</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>43300.436562499999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>153</v>
+      </c>
+      <c r="N28">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O28">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>125</v>
+      </c>
+      <c r="R28">
+        <v>126</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>7</v>
+      </c>
+      <c r="Z28">
+        <v>7</v>
+      </c>
+      <c r="AA28">
+        <v>6</v>
+      </c>
+      <c r="AB28">
+        <v>7</v>
+      </c>
+      <c r="AC28">
+        <v>6</v>
+      </c>
+      <c r="AD28">
+        <v>7</v>
+      </c>
+      <c r="AE28">
+        <v>7</v>
+      </c>
+      <c r="AF28">
+        <v>7</v>
+      </c>
+      <c r="AG28">
+        <v>5</v>
+      </c>
+      <c r="AH28">
+        <v>6</v>
+      </c>
+      <c r="AI28">
+        <v>7</v>
+      </c>
+      <c r="AJ28">
+        <v>6</v>
+      </c>
+      <c r="AK28">
+        <v>6</v>
+      </c>
+      <c r="AL28">
+        <v>7</v>
+      </c>
+      <c r="AM28">
+        <v>5</v>
+      </c>
+      <c r="AN28">
+        <v>5</v>
+      </c>
+      <c r="AO28">
+        <v>7</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="1"/>
+        <v>5.9565217391304346</v>
+      </c>
+      <c r="AU28">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47">
+      <c r="A29" s="1">
+        <v>43301.37296296296</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43301.374108796299</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>98</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>43301.374120370368</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="N29">
+        <v>43.014694213867003</v>
+      </c>
+      <c r="O29">
+        <v>-81.304901123047003</v>
+      </c>
+      <c r="P29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>125</v>
+      </c>
+      <c r="R29">
+        <v>123</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+      <c r="Z29">
+        <v>4</v>
+      </c>
+      <c r="AA29">
+        <v>5</v>
+      </c>
+      <c r="AB29">
+        <v>3</v>
+      </c>
+      <c r="AC29">
+        <v>5</v>
+      </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <v>3</v>
+      </c>
+      <c r="AG29">
+        <v>5</v>
+      </c>
+      <c r="AH29">
+        <v>3</v>
+      </c>
+      <c r="AI29">
+        <v>5</v>
+      </c>
+      <c r="AJ29">
+        <v>2</v>
+      </c>
+      <c r="AK29">
+        <v>3</v>
+      </c>
+      <c r="AL29">
+        <v>5</v>
+      </c>
+      <c r="AM29">
+        <v>4</v>
+      </c>
+      <c r="AN29">
+        <v>5</v>
+      </c>
+      <c r="AO29">
+        <v>5</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="1"/>
+        <v>3.8260869565217392</v>
+      </c>
+      <c r="AU29">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
